--- a/data/results_pvp_defense.xlsx
+++ b/data/results_pvp_defense.xlsx
@@ -14,20 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>pos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>score</t>
   </si>
   <si>
-    <t>rune</t>
-  </si>
-  <si>
-    <t>artifact</t>
-  </si>
-  <si>
     <t>winrate</t>
   </si>
   <si>
@@ -61,22 +52,133 @@
     <t>turns_alive</t>
   </si>
   <si>
+    <t>Abyss_Lord</t>
+  </si>
+  <si>
+    <t>Aden</t>
+  </si>
+  <si>
+    <t>Blood_Tooth</t>
+  </si>
+  <si>
+    <t>Centaur</t>
+  </si>
+  <si>
+    <t>Chessia</t>
+  </si>
+  <si>
+    <t>Dettlaff</t>
+  </si>
+  <si>
+    <t>Drow</t>
+  </si>
+  <si>
+    <t>Dziewona</t>
+  </si>
+  <si>
+    <t>Freya</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Grand</t>
+  </si>
+  <si>
+    <t>Hester</t>
+  </si>
+  <si>
+    <t>Lexar</t>
+  </si>
+  <si>
+    <t>Lindberg</t>
+  </si>
+  <si>
     <t>Luna</t>
   </si>
   <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Megaw</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>Monkey_King</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Nameless_King</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Orphee</t>
+  </si>
+  <si>
+    <t>Reaper</t>
+  </si>
+  <si>
+    <t>Ripper</t>
+  </si>
+  <si>
+    <t>Rlyeh</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Saw_Machine</t>
+  </si>
+  <si>
+    <t>Scarlet</t>
+  </si>
+  <si>
+    <t>Shudde_M'ell</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Tiger_King</t>
+  </si>
+  <si>
+    <t>Ultima</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>Vegvisir</t>
+  </si>
+  <si>
     <t>Verthandi</t>
   </si>
   <si>
-    <t>SpeedRuneR2</t>
-  </si>
-  <si>
-    <t>EvasionRuneR2</t>
-  </si>
-  <si>
-    <t>TearsOfTheGoddessO6</t>
-  </si>
-  <si>
-    <t>GiftOfCreationO6</t>
+    <t>Vivienne</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>Wolf_Rider</t>
+  </si>
+  <si>
+    <t>Wolnir</t>
+  </si>
+  <si>
+    <t>Xexanoth</t>
   </si>
 </sst>
 </file>
@@ -434,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,114 +579,1768 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B2">
+        <v>-38</v>
+      </c>
+      <c r="C2">
+        <v>0.5561666666666667</v>
+      </c>
+      <c r="D2">
+        <v>46973</v>
+      </c>
+      <c r="E2">
+        <v>37324</v>
+      </c>
+      <c r="F2">
+        <v>1.6</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2.41</v>
+      </c>
+      <c r="J2">
+        <v>3.32</v>
+      </c>
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <v>0.59</v>
+      </c>
+      <c r="M2">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>0.4430833333333333</v>
+      </c>
+      <c r="D3">
+        <v>413981</v>
+      </c>
+      <c r="E3">
+        <v>108768</v>
+      </c>
+      <c r="F3">
+        <v>1.24</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.32</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1.18</v>
+      </c>
+      <c r="L3">
+        <v>0.51</v>
+      </c>
+      <c r="M3">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0.4846666666666667</v>
+      </c>
+      <c r="D4">
+        <v>237626</v>
+      </c>
+      <c r="E4">
+        <v>87053</v>
+      </c>
+      <c r="F4">
+        <v>1.53</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.58</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1.04</v>
+      </c>
+      <c r="L4">
+        <v>0.54</v>
+      </c>
+      <c r="M4">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.5014999999999999</v>
+      </c>
+      <c r="D5">
+        <v>319940</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.05</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1.2</v>
+      </c>
+      <c r="J5">
+        <v>0.52</v>
+      </c>
+      <c r="K5">
+        <v>0.55</v>
+      </c>
+      <c r="L5">
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>0.4433333333333334</v>
+      </c>
+      <c r="D6">
+        <v>507858</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.25</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.86</v>
+      </c>
+      <c r="J6">
+        <v>0.52</v>
+      </c>
+      <c r="K6">
+        <v>0.96</v>
+      </c>
+      <c r="L6">
+        <v>0.64</v>
+      </c>
+      <c r="M6">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B7">
+        <v>-47</v>
+      </c>
+      <c r="C7">
+        <v>0.5671666666666667</v>
+      </c>
+      <c r="D7">
+        <v>144367</v>
+      </c>
+      <c r="E7">
+        <v>21290</v>
+      </c>
+      <c r="F7">
+        <v>1.19</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1.52</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.7</v>
+      </c>
+      <c r="M7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>0.3593333333333333</v>
+      </c>
+      <c r="D8">
+        <v>243312</v>
+      </c>
+      <c r="E8">
+        <v>454070</v>
+      </c>
+      <c r="F8">
+        <v>1.93</v>
+      </c>
+      <c r="G8">
+        <v>0.68</v>
+      </c>
+      <c r="H8">
+        <v>3.36</v>
+      </c>
+      <c r="I8">
+        <v>0.91</v>
+      </c>
+      <c r="J8">
+        <v>0.6</v>
+      </c>
+      <c r="K8">
+        <v>0.53</v>
+      </c>
+      <c r="L8">
+        <v>0.42</v>
+      </c>
+      <c r="M8">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2">
-        <v>0.4501</v>
-      </c>
-      <c r="G2">
-        <v>1103878</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="B9">
+        <v>-66</v>
+      </c>
+      <c r="C9">
+        <v>0.5911666666666666</v>
+      </c>
+      <c r="D9">
+        <v>181826</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.01</v>
+      </c>
+      <c r="G9">
+        <v>0.67</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1.24</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.21</v>
+      </c>
+      <c r="L9">
+        <v>0.82</v>
+      </c>
+      <c r="M9">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>0.44075</v>
+      </c>
+      <c r="D10">
+        <v>284771</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.58</v>
+      </c>
+      <c r="G10">
+        <v>3.37</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1.31</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.6</v>
+      </c>
+      <c r="L10">
+        <v>0.55</v>
+      </c>
+      <c r="M10">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>-41</v>
+      </c>
+      <c r="C11">
+        <v>0.56025</v>
+      </c>
+      <c r="D11">
+        <v>153815</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.38</v>
+      </c>
+      <c r="G11">
+        <v>1.61</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+      <c r="J11">
+        <v>0.63</v>
+      </c>
+      <c r="K11">
+        <v>0.25</v>
+      </c>
+      <c r="L11">
+        <v>0.67</v>
+      </c>
+      <c r="M11">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0.4920833333333333</v>
+      </c>
+      <c r="D12">
+        <v>148036</v>
+      </c>
+      <c r="E12">
+        <v>35433</v>
+      </c>
+      <c r="F12">
+        <v>1.57</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2.3</v>
+      </c>
+      <c r="J12">
+        <v>3.1</v>
+      </c>
+      <c r="K12">
+        <v>0.23</v>
+      </c>
+      <c r="L12">
+        <v>0.52</v>
+      </c>
+      <c r="M12">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>0.4609166666666666</v>
+      </c>
+      <c r="D13">
+        <v>159550</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1.47</v>
+      </c>
+      <c r="G13">
+        <v>1.31</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.96</v>
+      </c>
+      <c r="J13">
+        <v>0.57</v>
+      </c>
+      <c r="K13">
+        <v>0.28</v>
+      </c>
+      <c r="L13">
+        <v>0.68</v>
+      </c>
+      <c r="M13">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>-8</v>
+      </c>
+      <c r="C14">
+        <v>0.5185833333333333</v>
+      </c>
+      <c r="D14">
+        <v>326138</v>
+      </c>
+      <c r="E14">
+        <v>39415</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.27</v>
+      </c>
+      <c r="J14">
+        <v>0.41</v>
+      </c>
+      <c r="K14">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.64</v>
+      </c>
+      <c r="M14">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <v>0.3145</v>
+      </c>
+      <c r="D15">
+        <v>383190</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2.7</v>
+      </c>
+      <c r="G15">
+        <v>2.74</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.85</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1.6</v>
+      </c>
+      <c r="L15">
+        <v>0.37</v>
+      </c>
+      <c r="M15">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>0.4683333333333333</v>
+      </c>
+      <c r="D16">
+        <v>220339</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.45</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3.3</v>
+      </c>
+      <c r="I16">
+        <v>1.48</v>
+      </c>
+      <c r="J16">
+        <v>1.08</v>
+      </c>
+      <c r="K16">
+        <v>0.43</v>
+      </c>
+      <c r="L16">
+        <v>0.58</v>
+      </c>
+      <c r="M16">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>0.3610833333333333</v>
+      </c>
+      <c r="D17">
+        <v>317077</v>
+      </c>
+      <c r="E17">
+        <v>34916</v>
+      </c>
+      <c r="F17">
+        <v>1.82</v>
+      </c>
+      <c r="G17">
+        <v>3.48</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1.12</v>
+      </c>
+      <c r="J17">
+        <v>0.58</v>
+      </c>
+      <c r="K17">
+        <v>0.77</v>
+      </c>
+      <c r="L17">
+        <v>0.45</v>
+      </c>
+      <c r="M17">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>-42</v>
+      </c>
+      <c r="C18">
+        <v>0.5616666666666666</v>
+      </c>
+      <c r="D18">
+        <v>277038</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.11</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1.54</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.46</v>
+      </c>
+      <c r="L18">
+        <v>0.68</v>
+      </c>
+      <c r="M18">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>0.4649166666666666</v>
+      </c>
+      <c r="D19">
+        <v>302848</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.45</v>
+      </c>
+      <c r="G19">
+        <v>2.51</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1.15</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>0.47</v>
+      </c>
+      <c r="L19">
+        <v>0.61</v>
+      </c>
+      <c r="M19">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>-80</v>
+      </c>
+      <c r="C20">
+        <v>0.6081666666666666</v>
+      </c>
+      <c r="D20">
+        <v>107770</v>
+      </c>
+      <c r="E20">
+        <v>126436</v>
+      </c>
+      <c r="F20">
+        <v>1.05</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1.15</v>
+      </c>
+      <c r="J20">
+        <v>1.42</v>
+      </c>
+      <c r="K20">
+        <v>0.12</v>
+      </c>
+      <c r="L20">
+        <v>0.83</v>
+      </c>
+      <c r="M20">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>-46</v>
+      </c>
+      <c r="C21">
+        <v>0.5659166666666666</v>
+      </c>
+      <c r="D21">
+        <v>151666</v>
+      </c>
+      <c r="E21">
+        <v>74112</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2.23</v>
+      </c>
+      <c r="J21">
+        <v>3.05</v>
+      </c>
+      <c r="K21">
+        <v>0.19</v>
+      </c>
+      <c r="L21">
+        <v>0.61</v>
+      </c>
+      <c r="M21">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>0.4253333333333333</v>
+      </c>
+      <c r="D22">
+        <v>419960</v>
+      </c>
+      <c r="E22">
+        <v>194052</v>
+      </c>
+      <c r="F22">
+        <v>1.33</v>
+      </c>
+      <c r="G22">
+        <v>0.44</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1.98</v>
+      </c>
+      <c r="J22">
+        <v>0.86</v>
+      </c>
+      <c r="K22">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.48</v>
+      </c>
+      <c r="M22">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>-45</v>
+      </c>
+      <c r="C23">
+        <v>0.56525</v>
+      </c>
+      <c r="D23">
+        <v>142316</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.34</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1.28</v>
+      </c>
+      <c r="J23">
+        <v>4.94</v>
+      </c>
+      <c r="K23">
+        <v>0.2</v>
+      </c>
+      <c r="L23">
+        <v>0.75</v>
+      </c>
+      <c r="M23">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0.4931666666666666</v>
+      </c>
+      <c r="D24">
+        <v>346669</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.24</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1.79</v>
+      </c>
+      <c r="J24">
+        <v>0.47</v>
+      </c>
+      <c r="K24">
+        <v>0.7</v>
+      </c>
+      <c r="L24">
+        <v>0.55</v>
+      </c>
+      <c r="M24">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>282</v>
+      </c>
+      <c r="C25">
+        <v>0.1564166666666667</v>
+      </c>
+      <c r="D25">
+        <v>276632</v>
+      </c>
+      <c r="E25">
+        <v>187363</v>
+      </c>
+      <c r="F25">
+        <v>2.32</v>
+      </c>
+      <c r="G25">
+        <v>1.07</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1.28</v>
+      </c>
+      <c r="J25">
+        <v>1.2</v>
+      </c>
+      <c r="K25">
+        <v>0.62</v>
+      </c>
+      <c r="L25">
+        <v>0.17</v>
+      </c>
+      <c r="M25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>-82</v>
+      </c>
+      <c r="C26">
+        <v>0.6116666666666667</v>
+      </c>
+      <c r="D26">
+        <v>141877</v>
+      </c>
+      <c r="E26">
+        <v>52931</v>
+      </c>
+      <c r="F26">
+        <v>0.97</v>
+      </c>
+      <c r="G26">
+        <v>0.13</v>
+      </c>
+      <c r="H26">
+        <v>0.19</v>
+      </c>
+      <c r="I26">
+        <v>1.09</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.18</v>
+      </c>
+      <c r="L26">
+        <v>0.76</v>
+      </c>
+      <c r="M26">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>-8</v>
+      </c>
+      <c r="C27">
+        <v>0.5185833333333333</v>
+      </c>
+      <c r="D27">
+        <v>371243</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.03</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.92</v>
+      </c>
+      <c r="I27">
+        <v>1.34</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.62</v>
+      </c>
+      <c r="L27">
+        <v>0.74</v>
+      </c>
+      <c r="M27">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>-27</v>
+      </c>
+      <c r="C28">
+        <v>0.54275</v>
+      </c>
+      <c r="D28">
+        <v>244498</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1.04</v>
+      </c>
+      <c r="G28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1.13</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.53</v>
+      </c>
+      <c r="L28">
+        <v>0.76</v>
+      </c>
+      <c r="M28">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>-61</v>
+      </c>
+      <c r="C29">
+        <v>0.5855</v>
+      </c>
+      <c r="D29">
+        <v>29126</v>
+      </c>
+      <c r="E29">
+        <v>131334</v>
+      </c>
+      <c r="F29">
+        <v>1.09</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1.9</v>
+      </c>
+      <c r="J29">
+        <v>3.26</v>
+      </c>
+      <c r="K29">
+        <v>0.12</v>
+      </c>
+      <c r="L29">
+        <v>0.67</v>
+      </c>
+      <c r="M29">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>-60</v>
+      </c>
+      <c r="C30">
+        <v>0.5843333333333334</v>
+      </c>
+      <c r="D30">
+        <v>189428</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1.12</v>
+      </c>
+      <c r="J30">
+        <v>0.2</v>
+      </c>
+      <c r="K30">
+        <v>0.61</v>
+      </c>
+      <c r="L30">
+        <v>0.79</v>
+      </c>
+      <c r="M30">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>-28</v>
+      </c>
+      <c r="C31">
+        <v>0.5441666666666667</v>
+      </c>
+      <c r="D31">
+        <v>215822</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1.17</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.9</v>
+      </c>
+      <c r="I31">
+        <v>1.57</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.3</v>
+      </c>
+      <c r="L31">
+        <v>0.67</v>
+      </c>
+      <c r="M31">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>0.4834166666666667</v>
+      </c>
+      <c r="D32">
+        <v>434376</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.64</v>
+      </c>
+      <c r="L32">
+        <v>0.87</v>
+      </c>
+      <c r="M32">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>125</v>
+      </c>
+      <c r="C33">
+        <v>0.352</v>
+      </c>
+      <c r="D33">
+        <v>189775</v>
+      </c>
+      <c r="E33">
+        <v>333112</v>
+      </c>
+      <c r="F33">
+        <v>1.95</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>4.39</v>
+      </c>
+      <c r="I33">
+        <v>1.26</v>
+      </c>
+      <c r="J33">
+        <v>0.68</v>
+      </c>
+      <c r="K33">
+        <v>0.29</v>
+      </c>
+      <c r="L33">
+        <v>0.45</v>
+      </c>
+      <c r="M33">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>0.5095833333333334</v>
+      </c>
+      <c r="D34">
+        <v>128065</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1.25</v>
+      </c>
+      <c r="G34">
+        <v>3.6</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1.48</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.19</v>
+      </c>
+      <c r="L34">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M34">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35">
+        <v>0.5094166666666666</v>
+      </c>
+      <c r="D35">
+        <v>192845</v>
+      </c>
+      <c r="E35">
+        <v>78633</v>
+      </c>
+      <c r="F35">
+        <v>1.56</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2.27</v>
+      </c>
+      <c r="J35">
+        <v>3.07</v>
+      </c>
+      <c r="K35">
+        <v>0.28</v>
+      </c>
+      <c r="L35">
+        <v>0.54</v>
+      </c>
+      <c r="M35">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>0.4805</v>
+      </c>
+      <c r="D36">
+        <v>82682</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1.83</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J36">
+        <v>0.86</v>
+      </c>
+      <c r="K36">
+        <v>0.13</v>
+      </c>
+      <c r="L36">
+        <v>0.66</v>
+      </c>
+      <c r="M36">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>214</v>
+      </c>
+      <c r="C37">
+        <v>0.2414166666666667</v>
+      </c>
+      <c r="D37">
+        <v>467885</v>
+      </c>
+      <c r="E37">
+        <v>320563</v>
+      </c>
+      <c r="F37">
+        <v>1.45</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1.77</v>
+      </c>
+      <c r="J37">
+        <v>0.21</v>
+      </c>
+      <c r="K37">
+        <v>1.07</v>
+      </c>
+      <c r="L37">
+        <v>0.27</v>
+      </c>
+      <c r="M37">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>0.4689166666666666</v>
+      </c>
+      <c r="D38">
+        <v>115319</v>
+      </c>
+      <c r="E38">
+        <v>201556</v>
+      </c>
+      <c r="F38">
+        <v>1.45</v>
+      </c>
+      <c r="G38">
+        <v>1.95</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>2.48</v>
+      </c>
+      <c r="J38">
+        <v>3.29</v>
+      </c>
+      <c r="K38">
+        <v>0.26</v>
+      </c>
+      <c r="L38">
+        <v>0.48</v>
+      </c>
+      <c r="M38">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>0.4614166666666666</v>
+      </c>
+      <c r="D39">
+        <v>242400</v>
+      </c>
+      <c r="E39">
+        <v>111583</v>
+      </c>
+      <c r="F39">
+        <v>1.22</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1.37</v>
+      </c>
+      <c r="J39">
+        <v>2.46</v>
+      </c>
+      <c r="K39">
+        <v>0.29</v>
+      </c>
+      <c r="L39">
+        <v>0.64</v>
+      </c>
+      <c r="M39">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>-12</v>
+      </c>
+      <c r="C40">
+        <v>0.5240833333333333</v>
+      </c>
+      <c r="D40">
+        <v>29282</v>
+      </c>
+      <c r="E40">
+        <v>297233</v>
+      </c>
+      <c r="F40">
+        <v>1.31</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>1.76</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>1.33</v>
-      </c>
-      <c r="M2">
-        <v>0.57</v>
-      </c>
-      <c r="N2">
-        <v>0.57</v>
-      </c>
-      <c r="O2">
-        <v>0.51</v>
-      </c>
-      <c r="P2">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>-3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0.4567</v>
-      </c>
-      <c r="G3">
-        <v>1062756</v>
-      </c>
-      <c r="H3">
-        <v>423136</v>
-      </c>
-      <c r="I3">
-        <v>1.39</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1.48</v>
-      </c>
-      <c r="M3">
+      <c r="J40">
+        <v>2.76</v>
+      </c>
+      <c r="K40">
+        <v>0.05</v>
+      </c>
+      <c r="L40">
+        <v>0.7</v>
+      </c>
+      <c r="M40">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>-54</v>
+      </c>
+      <c r="C41">
+        <v>0.57675</v>
+      </c>
+      <c r="D41">
+        <v>97154</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1.21</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1.49</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.47</v>
+      </c>
+      <c r="L41">
+        <v>0.73</v>
+      </c>
+      <c r="M41">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.50875</v>
+      </c>
+      <c r="D42">
+        <v>74368</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>1.35</v>
       </c>
-      <c r="N3">
-        <v>0.38</v>
-      </c>
-      <c r="O3">
-        <v>0.53</v>
-      </c>
-      <c r="P3">
-        <v>5.4</v>
+      <c r="G42">
+        <v>1.36</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1.81</v>
+      </c>
+      <c r="J42">
+        <v>2.46</v>
+      </c>
+      <c r="K42">
+        <v>0.12</v>
+      </c>
+      <c r="L42">
+        <v>0.62</v>
+      </c>
+      <c r="M42">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>-47</v>
+      </c>
+      <c r="C43">
+        <v>0.5673333333333334</v>
+      </c>
+      <c r="D43">
+        <v>68700</v>
+      </c>
+      <c r="E43">
+        <v>85413</v>
+      </c>
+      <c r="F43">
+        <v>1.61</v>
+      </c>
+      <c r="G43">
+        <v>1.12</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>2.07</v>
+      </c>
+      <c r="J43">
+        <v>0.82</v>
+      </c>
+      <c r="K43">
+        <v>0.12</v>
+      </c>
+      <c r="L43">
+        <v>0.61</v>
+      </c>
+      <c r="M43">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>-36</v>
+      </c>
+      <c r="C44">
+        <v>0.5531666666666667</v>
+      </c>
+      <c r="D44">
+        <v>154980</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1.95</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.18</v>
+      </c>
+      <c r="I44">
+        <v>1.52</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.33</v>
+      </c>
+      <c r="L44">
+        <v>0.65</v>
+      </c>
+      <c r="M44">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/results_pvp_defense.xlsx
+++ b/data/results_pvp_defense.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>score</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Shudde_M'ell</t>
+  </si>
+  <si>
+    <t>Skuld</t>
   </si>
   <si>
     <t>Tesla</t>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-38</v>
+        <v>-96</v>
       </c>
       <c r="C2">
-        <v>0.5561666666666667</v>
+        <v>0.6771666666666667</v>
       </c>
       <c r="D2">
-        <v>46973</v>
+        <v>46215</v>
       </c>
       <c r="E2">
-        <v>37324</v>
+        <v>36492</v>
       </c>
       <c r="F2">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.41</v>
+        <v>2.18</v>
       </c>
       <c r="J2">
-        <v>3.32</v>
+        <v>3.8</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L2">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="M2">
-        <v>5.94</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -626,19 +629,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>0.4430833333333333</v>
+        <v>0.5015833333333334</v>
       </c>
       <c r="D3">
-        <v>413981</v>
+        <v>417701</v>
       </c>
       <c r="E3">
-        <v>108768</v>
+        <v>94074</v>
       </c>
       <c r="F3">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -647,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.18</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L3">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="M3">
-        <v>4.07</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -667,19 +670,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>0.4846666666666667</v>
+        <v>0.527</v>
       </c>
       <c r="D4">
-        <v>237626</v>
+        <v>233678</v>
       </c>
       <c r="E4">
-        <v>87053</v>
+        <v>85443</v>
       </c>
       <c r="F4">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -688,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.04</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="M4">
-        <v>5.23</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -708,19 +711,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0.5014999999999999</v>
+        <v>0.54625</v>
       </c>
       <c r="D5">
-        <v>319940</v>
+        <v>334722</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -729,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="J5">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="K5">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="L5">
         <v>0.7</v>
       </c>
       <c r="M5">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -749,19 +752,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>0.4433333333333334</v>
+        <v>0.474</v>
       </c>
       <c r="D6">
-        <v>507858</v>
+        <v>573650</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -770,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="J6">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="K6">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="L6">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="M6">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -790,19 +793,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>-47</v>
+        <v>-26</v>
       </c>
       <c r="C7">
-        <v>0.5671666666666667</v>
+        <v>0.5888333333333333</v>
       </c>
       <c r="D7">
-        <v>144367</v>
+        <v>145242</v>
       </c>
       <c r="E7">
-        <v>21290</v>
+        <v>21994</v>
       </c>
       <c r="F7">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -811,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="L7">
         <v>0.7</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -831,40 +834,40 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C8">
-        <v>0.3593333333333333</v>
+        <v>0.42675</v>
       </c>
       <c r="D8">
-        <v>243312</v>
+        <v>243274</v>
       </c>
       <c r="E8">
-        <v>454070</v>
+        <v>442868</v>
       </c>
       <c r="F8">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G8">
-        <v>0.68</v>
+        <v>0.98</v>
       </c>
       <c r="H8">
-        <v>3.36</v>
+        <v>3.9</v>
       </c>
       <c r="I8">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="J8">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="K8">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="L8">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="M8">
-        <v>5.95</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -872,40 +875,40 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>-66</v>
+        <v>-45</v>
       </c>
       <c r="C9">
-        <v>0.5911666666666666</v>
+        <v>0.6128333333333333</v>
       </c>
       <c r="D9">
-        <v>181826</v>
+        <v>201853</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="G9">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="L9">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="M9">
-        <v>3.26</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -913,40 +916,40 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C10">
-        <v>0.44075</v>
+        <v>0.4655</v>
       </c>
       <c r="D10">
-        <v>284771</v>
+        <v>313298</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="G10">
-        <v>3.37</v>
+        <v>3.54</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="M10">
-        <v>4.72</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -954,40 +957,40 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="C11">
-        <v>0.56025</v>
+        <v>0.5835</v>
       </c>
       <c r="D11">
-        <v>153815</v>
+        <v>173179</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>1.51</v>
+      </c>
+      <c r="G11">
+        <v>1.57</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>1.38</v>
       </c>
-      <c r="G11">
-        <v>1.61</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.5</v>
-      </c>
       <c r="J11">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="L11">
         <v>0.67</v>
       </c>
       <c r="M11">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -995,19 +998,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>-43</v>
       </c>
       <c r="C12">
-        <v>0.4920833333333333</v>
+        <v>0.6110833333333333</v>
       </c>
       <c r="D12">
-        <v>148036</v>
+        <v>147778</v>
       </c>
       <c r="E12">
-        <v>35433</v>
+        <v>36443</v>
       </c>
       <c r="F12">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1016,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="J12">
-        <v>3.1</v>
+        <v>3.83</v>
       </c>
       <c r="K12">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="L12">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="M12">
-        <v>5.88</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1036,40 +1039,40 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>0.4609166666666666</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="D13">
-        <v>159550</v>
+        <v>165426</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G13">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="J13">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="K13">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="M13">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1077,19 +1080,19 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.5185833333333333</v>
+        <v>0.5570833333333334</v>
       </c>
       <c r="D14">
-        <v>326138</v>
+        <v>332480</v>
       </c>
       <c r="E14">
-        <v>39415</v>
+        <v>32228</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1098,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="J14">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="K14">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="L14">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="M14">
-        <v>4.3</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1118,40 +1121,40 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C15">
-        <v>0.3145</v>
+        <v>0.3698333333333333</v>
       </c>
       <c r="D15">
-        <v>383190</v>
+        <v>401898</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="G15">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L15">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="M15">
-        <v>5.64</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1159,40 +1162,40 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>-13</v>
       </c>
       <c r="C16">
-        <v>0.4683333333333333</v>
+        <v>0.5735833333333333</v>
       </c>
       <c r="D16">
-        <v>220339</v>
+        <v>231196</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1.6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3.83</v>
+      </c>
+      <c r="I16">
         <v>1.45</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>3.3</v>
-      </c>
-      <c r="I16">
-        <v>1.48</v>
-      </c>
       <c r="J16">
-        <v>1.08</v>
+        <v>1.56</v>
       </c>
       <c r="K16">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="L16">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="M16">
-        <v>4.24</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1200,40 +1203,40 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C17">
-        <v>0.3610833333333333</v>
+        <v>0.397</v>
       </c>
       <c r="D17">
-        <v>317077</v>
+        <v>400273</v>
       </c>
       <c r="E17">
-        <v>34916</v>
+        <v>19757</v>
       </c>
       <c r="F17">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G17">
-        <v>3.48</v>
+        <v>3.63</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="J17">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="K17">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L17">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="M17">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1241,19 +1244,19 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>-42</v>
+        <v>-27</v>
       </c>
       <c r="C18">
-        <v>0.5616666666666666</v>
+        <v>0.5906666666666667</v>
       </c>
       <c r="D18">
-        <v>277038</v>
+        <v>295956</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1262,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="L18">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M18">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,40 +1285,40 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C19">
-        <v>0.4649166666666666</v>
+        <v>0.4951666666666666</v>
       </c>
       <c r="D19">
-        <v>302848</v>
+        <v>322961</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G19">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K19">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="L19">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="M19">
-        <v>4.32</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1323,19 +1326,19 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>-80</v>
+        <v>-51</v>
       </c>
       <c r="C20">
-        <v>0.6081666666666666</v>
+        <v>0.6201666666666666</v>
       </c>
       <c r="D20">
-        <v>107770</v>
+        <v>117785</v>
       </c>
       <c r="E20">
-        <v>126436</v>
+        <v>128584</v>
       </c>
       <c r="F20">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1344,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="J20">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="K20">
         <v>0.12</v>
       </c>
       <c r="L20">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="M20">
-        <v>3.42</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1364,19 +1367,19 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>-46</v>
+        <v>-92</v>
       </c>
       <c r="C21">
-        <v>0.5659166666666666</v>
+        <v>0.67175</v>
       </c>
       <c r="D21">
-        <v>151666</v>
+        <v>158777</v>
       </c>
       <c r="E21">
-        <v>74112</v>
+        <v>72092</v>
       </c>
       <c r="F21">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1385,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.23</v>
+        <v>1.99</v>
       </c>
       <c r="J21">
-        <v>3.05</v>
+        <v>3.42</v>
       </c>
       <c r="K21">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="L21">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="M21">
-        <v>5.46</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1405,40 +1408,40 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>-18</v>
       </c>
       <c r="C22">
-        <v>0.4253333333333333</v>
+        <v>0.5798333333333333</v>
       </c>
       <c r="D22">
-        <v>419960</v>
+        <v>433670</v>
       </c>
       <c r="E22">
-        <v>194052</v>
+        <v>207102</v>
       </c>
       <c r="F22">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="G22">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="J22">
-        <v>0.86</v>
+        <v>1.27</v>
       </c>
       <c r="K22">
-        <v>0.8100000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="L22">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="M22">
-        <v>4.96</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1446,19 +1449,19 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>-45</v>
+        <v>-75</v>
       </c>
       <c r="C23">
-        <v>0.56525</v>
+        <v>0.6509166666666667</v>
       </c>
       <c r="D23">
-        <v>142316</v>
+        <v>154741</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1467,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="J23">
-        <v>4.94</v>
+        <v>6.08</v>
       </c>
       <c r="K23">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="L23">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="M23">
-        <v>3.74</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1487,19 +1490,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C24">
-        <v>0.4931666666666666</v>
+        <v>0.50175</v>
       </c>
       <c r="D24">
-        <v>346669</v>
+        <v>439258</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1508,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="J24">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="K24">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
         <v>0.55</v>
       </c>
       <c r="M24">
-        <v>4.94</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1528,40 +1531,40 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="C25">
-        <v>0.1564166666666667</v>
+        <v>0.2900833333333334</v>
       </c>
       <c r="D25">
-        <v>276632</v>
+        <v>262754</v>
       </c>
       <c r="E25">
-        <v>187363</v>
+        <v>230416</v>
       </c>
       <c r="F25">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="G25">
-        <v>1.07</v>
+        <v>1.41</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="J25">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="L25">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="M25">
-        <v>5.5</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1569,40 +1572,40 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>-82</v>
+        <v>-55</v>
       </c>
       <c r="C26">
-        <v>0.6116666666666667</v>
+        <v>0.6251666666666666</v>
       </c>
       <c r="D26">
-        <v>141877</v>
+        <v>137985</v>
       </c>
       <c r="E26">
-        <v>52931</v>
+        <v>44068</v>
       </c>
       <c r="F26">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="G26">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="H26">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I26">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="L26">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="M26">
-        <v>3.23</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1610,40 +1613,40 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>0.5185833333333333</v>
+        <v>0.5515833333333333</v>
       </c>
       <c r="D27">
-        <v>371243</v>
+        <v>382199</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="I27">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="L27">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="M27">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1651,40 +1654,40 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.54275</v>
+        <v>0.5563333333333333</v>
       </c>
       <c r="D28">
-        <v>244498</v>
+        <v>253019</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="G28">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="L28">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="M28">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1692,19 +1695,19 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>-61</v>
+        <v>-116</v>
       </c>
       <c r="C29">
-        <v>0.5855</v>
+        <v>0.7013333333333334</v>
       </c>
       <c r="D29">
-        <v>29126</v>
+        <v>26259</v>
       </c>
       <c r="E29">
-        <v>131334</v>
+        <v>124154</v>
       </c>
       <c r="F29">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1713,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="J29">
-        <v>3.26</v>
+        <v>3.62</v>
       </c>
       <c r="K29">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="L29">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="M29">
-        <v>4.84</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1733,19 +1736,19 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>-60</v>
+        <v>-34</v>
       </c>
       <c r="C30">
-        <v>0.5843333333333334</v>
+        <v>0.5994166666666667</v>
       </c>
       <c r="D30">
-        <v>189428</v>
+        <v>197043</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1754,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="J30">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="K30">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="L30">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="M30">
-        <v>3.41</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1774,40 +1777,40 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>0.5441666666666667</v>
+        <v>0.5515</v>
       </c>
       <c r="D31">
-        <v>215822</v>
+        <v>246118</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="I31">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="L31">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="M31">
-        <v>4.32</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1815,19 +1818,19 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>0.4834166666666667</v>
+        <v>0.5419166666666667</v>
       </c>
       <c r="D32">
-        <v>434376</v>
+        <v>457412</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1836,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0.9099999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0.64</v>
+        <v>0.47</v>
       </c>
       <c r="L32">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="M32">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1856,16 +1859,16 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C33">
-        <v>0.352</v>
+        <v>0.4185</v>
       </c>
       <c r="D33">
-        <v>189775</v>
+        <v>191891</v>
       </c>
       <c r="E33">
-        <v>333112</v>
+        <v>326378</v>
       </c>
       <c r="F33">
         <v>1.95</v>
@@ -1874,22 +1877,22 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4.39</v>
+        <v>4.04</v>
       </c>
       <c r="I33">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="J33">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="K33">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="L33">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="M33">
-        <v>5.47</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1897,40 +1900,40 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>185</v>
       </c>
       <c r="C34">
-        <v>0.5095833333333334</v>
+        <v>0.32575</v>
       </c>
       <c r="D34">
-        <v>128065</v>
+        <v>159922</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>487039</v>
       </c>
       <c r="F34">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="G34">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="K34">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="L34">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="M34">
-        <v>4.28</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1938,40 +1941,40 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="C35">
-        <v>0.5094166666666666</v>
+        <v>0.5238333333333334</v>
       </c>
       <c r="D35">
-        <v>192845</v>
+        <v>149019</v>
       </c>
       <c r="E35">
-        <v>78633</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2.27</v>
+        <v>1.33</v>
       </c>
       <c r="J35">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="L35">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="M35">
-        <v>5.81</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1979,19 +1982,19 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>-55</v>
       </c>
       <c r="C36">
-        <v>0.4805</v>
+        <v>0.6254166666666666</v>
       </c>
       <c r="D36">
-        <v>82682</v>
+        <v>197884</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>88331</v>
       </c>
       <c r="F36">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2000,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0.8100000000000001</v>
+        <v>2.07</v>
       </c>
       <c r="J36">
-        <v>0.86</v>
+        <v>3.78</v>
       </c>
       <c r="K36">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="L36">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="M36">
-        <v>3.87</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2020,19 +2023,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>214</v>
+        <v>-21</v>
       </c>
       <c r="C37">
-        <v>0.2414166666666667</v>
+        <v>0.5825833333333333</v>
       </c>
       <c r="D37">
-        <v>467885</v>
+        <v>77085</v>
       </c>
       <c r="E37">
-        <v>320563</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2041,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1.77</v>
+        <v>0.89</v>
       </c>
       <c r="J37">
-        <v>0.21</v>
+        <v>1.24</v>
       </c>
       <c r="K37">
-        <v>1.07</v>
+        <v>0.08</v>
       </c>
       <c r="L37">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="M37">
-        <v>5.59</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2061,40 +2064,40 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="C38">
-        <v>0.4689166666666666</v>
+        <v>0.3235</v>
       </c>
       <c r="D38">
-        <v>115319</v>
+        <v>508852</v>
       </c>
       <c r="E38">
-        <v>201556</v>
+        <v>272152</v>
       </c>
       <c r="F38">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="G38">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2.48</v>
+        <v>1.62</v>
       </c>
       <c r="J38">
-        <v>3.29</v>
+        <v>0.44</v>
       </c>
       <c r="K38">
-        <v>0.26</v>
+        <v>0.95</v>
       </c>
       <c r="L38">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="M38">
-        <v>6.7</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2102,40 +2105,40 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>-25</v>
       </c>
       <c r="C39">
-        <v>0.4614166666666666</v>
+        <v>0.5882500000000001</v>
       </c>
       <c r="D39">
-        <v>242400</v>
+        <v>114860</v>
       </c>
       <c r="E39">
-        <v>111583</v>
+        <v>206966</v>
       </c>
       <c r="F39">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1.37</v>
+        <v>2.22</v>
       </c>
       <c r="J39">
-        <v>2.46</v>
+        <v>3.96</v>
       </c>
       <c r="K39">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="L39">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="M39">
-        <v>3.77</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2143,19 +2146,19 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.5240833333333333</v>
+        <v>0.5555833333333333</v>
       </c>
       <c r="D40">
-        <v>29282</v>
+        <v>281197</v>
       </c>
       <c r="E40">
-        <v>297233</v>
+        <v>110272</v>
       </c>
       <c r="F40">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2164,19 +2167,19 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="J40">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="K40">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="L40">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="M40">
-        <v>4.36</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2184,19 +2187,19 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>-54</v>
+        <v>-61</v>
       </c>
       <c r="C41">
-        <v>0.57675</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D41">
-        <v>97154</v>
+        <v>28368</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>298051</v>
       </c>
       <c r="F41">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2205,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="K41">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
       <c r="L41">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="M41">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2225,40 +2228,40 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="C42">
-        <v>0.50875</v>
+        <v>0.5902500000000001</v>
       </c>
       <c r="D42">
-        <v>74368</v>
+        <v>105385</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="G42">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1.81</v>
+        <v>1.32</v>
       </c>
       <c r="J42">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="L42">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="M42">
-        <v>4.76</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2266,40 +2269,40 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>-47</v>
+        <v>-59</v>
       </c>
       <c r="C43">
-        <v>0.5673333333333334</v>
+        <v>0.6310833333333333</v>
       </c>
       <c r="D43">
-        <v>68700</v>
+        <v>73511</v>
       </c>
       <c r="E43">
-        <v>85413</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="G43">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>2.07</v>
+        <v>1.67</v>
       </c>
       <c r="J43">
-        <v>0.82</v>
+        <v>2.84</v>
       </c>
       <c r="K43">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="L43">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="M43">
-        <v>5.3</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2307,40 +2310,81 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>-36</v>
+        <v>25</v>
       </c>
       <c r="C44">
-        <v>0.5531666666666667</v>
+        <v>0.5257500000000001</v>
       </c>
       <c r="D44">
-        <v>154980</v>
+        <v>118920</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>138034</v>
       </c>
       <c r="F44">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="H44">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1.52</v>
+        <v>2.07</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="K44">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="L44">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="M44">
-        <v>4.5</v>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>-107</v>
+      </c>
+      <c r="C45">
+        <v>0.6905833333333333</v>
+      </c>
+      <c r="D45">
+        <v>146423</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1.98</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.24</v>
+      </c>
+      <c r="I45">
+        <v>1.33</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.22</v>
+      </c>
+      <c r="L45">
+        <v>0.78</v>
+      </c>
+      <c r="M45">
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>
